--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prich\Documents\GitHub\magnetic_head_fixation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E8E716-CBF6-4EBA-BDC7-660DEFCD4FDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EBDEE2-5F0E-4240-AEA1-1CDC22BB21CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>Fixation hardware</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>GOH-40A51UU:1</t>
   </si>
@@ -78,20 +75,54 @@
     <t>1/4" Travel Micrometer Head with 0.001" Graduations</t>
   </si>
   <si>
-    <t xml:space="preserve">a neodymium magnet, </t>
-  </si>
-  <si>
     <t>K&amp;J magnets</t>
   </si>
   <si>
     <t>D44-N52</t>
+  </si>
+  <si>
+    <t>LTE-302-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+EMITTER IR 940NM 50MA RADIAL</t>
+  </si>
+  <si>
+    <t>PT908-7C-F</t>
+  </si>
+  <si>
+    <t>Sidelooker Phototransistor</t>
+  </si>
+  <si>
+    <t>these two devices are the correct package to fit into the nose poke side slots</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>not actually implemented as computor controlled stage in current version</t>
+  </si>
+  <si>
+    <t>neodymium magnets</t>
+  </si>
+  <si>
+    <t>Tsunami Super WAV Trigger</t>
+  </si>
+  <si>
+    <t>WIG-20636</t>
+  </si>
+  <si>
+    <t>used to generate sound via serial commands from base station</t>
+  </si>
+  <si>
+    <t>sparkfun/digi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,27 +146,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,15 +174,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,102 +469,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1171875" customWidth="1"/>
-    <col min="3" max="3" width="60.76171875" customWidth="1"/>
+    <col min="1" max="1" width="15.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.76171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.52734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.6">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
